--- a/output_by_subject/CS384.xlsx
+++ b/output_by_subject/CS384.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D282"/>
+  <dimension ref="A1:D385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6625,6 +6625,2272 @@
         </is>
       </c>
     </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>1901EE01</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>1901EE02</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>1901EE03</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>1901EE04</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>1901EE06</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>1901EE07</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>1901EE09</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>1901EE11</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>1901EE17</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>1901EE20</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>1901EE21</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>1901EE22</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>1901EE23</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>1901EE24</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>1901EE25</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>1901EE26</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>1901EE27</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>1901EE28</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>1901EE30</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>1901EE31</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>1901EE32</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>1901EE34</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>1901EE36</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>1901EE37</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>1901EE41</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>1901EE42</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>1901EE43</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>1901EE44</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>1901EE45</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>1901EE46</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>1901EE48</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>1901EE49</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>1901EE50</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>1901EE51</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>1901EE52</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>1901EE53</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>1901EE54</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>1901EE55</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>1901EE56</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>1901EE57</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>1901EE58</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>1901EE60</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>1901EE61</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>1901EE62</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>1901EE63</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>1901EE64</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>1901EE65</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>1901EE68</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>1901EE72</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>1901EE73</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>1901EE74</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>1901EE75</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>1901EE76</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>1901EE77</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>1901ME06</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>1901ME07</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>1901ME10</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>1901ME14</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>1901ME15</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>1901ME16</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>1901ME18</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>1901ME19</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>1901ME20</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>1901ME21</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>1901ME24</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>1901ME25</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>1901ME26</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>1901ME27</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>1901ME29</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>1901ME30</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>1901ME31</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>1901ME32</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>1901ME33</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>1901ME35</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>1901ME36</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>1901ME37</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>1901ME38</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>1901ME39</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>1901ME40</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>1901ME41</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>1901ME45</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>1901ME46</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>1901ME49</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>1901ME56</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>1901ME65</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>1901ME68</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>1901ME69</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>1901ME72</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>1901MM01</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>1901MM05</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>1901MM07</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>1901MM09</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>1901MM11</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>1901MM13</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>1901MM14</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>1901MM15</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>1901MM18</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>1901MM22</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>1901MM23</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>1901MM25</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>1901MM31</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>1901MM33</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>1901MM37</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>CS384</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
